--- a/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{658D15FD-211F-4F16-8CE2-6D9D6C41BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3D914E-D76D-4BC7-AEC9-9FF38F3ED5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8150BCFC-4496-413F-8900-6671557AC1A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CDB3E11-00B0-49C8-A9FF-F202B78228B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="339">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera la contaminación del aire en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>6,53%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>50 €</t>
@@ -98,7 +98,7 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -107,7 +107,7 @@
     <t>2,36%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>7,64%</t>
   </si>
   <si>
     <t>40 €</t>
@@ -122,25 +122,25 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>7,52%</t>
+    <t>7,03%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>30 €</t>
   </si>
   <si>
-    <t>11,98%</t>
+    <t>11,93%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,2%</t>
+    <t>6,1%</t>
   </si>
   <si>
     <t>25 €</t>
@@ -149,934 +149,907 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>16,59%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1491,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F196824B-BBEB-4F55-B3FC-4C38537EEE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039478F-1D9B-4F3D-B2AB-EF8D7EF551C1}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2023,13 +1996,13 @@
         <v>2964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2053,19 +2026,19 @@
         <v>2964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -2074,13 +2047,13 @@
         <v>2088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2089,13 +2062,13 @@
         <v>2003</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2104,19 +2077,19 @@
         <v>4091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7">
         <v>34</v>
@@ -2125,13 +2098,13 @@
         <v>16805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -2140,13 +2113,13 @@
         <v>23606</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -2155,13 +2128,13 @@
         <v>40411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2149,13 @@
         <v>24973</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -2191,13 +2164,13 @@
         <v>29854</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -2206,18 +2179,18 @@
         <v>54827</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2229,13 +2202,13 @@
         <v>2968</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2250,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2259,13 +2232,13 @@
         <v>2968</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2253,13 @@
         <v>3737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2295,13 +2268,13 @@
         <v>852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2310,13 +2283,13 @@
         <v>4589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2304,13 @@
         <v>888</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2352,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -2361,13 +2334,13 @@
         <v>888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2403,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2418,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2406,13 @@
         <v>422</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2448,13 +2421,13 @@
         <v>418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2463,13 +2436,13 @@
         <v>840</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2505,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2520,7 +2493,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2508,13 @@
         <v>1340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2550,13 +2523,13 @@
         <v>1979</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2565,13 +2538,13 @@
         <v>3319</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2559,13 @@
         <v>451</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2601,13 +2574,13 @@
         <v>1100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2616,13 +2589,13 @@
         <v>1551</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2610,13 @@
         <v>4520</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2652,13 +2625,13 @@
         <v>2666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2667,19 +2640,19 @@
         <v>7185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
@@ -2688,13 +2661,13 @@
         <v>7522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2703,13 +2676,13 @@
         <v>10325</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2718,19 +2691,19 @@
         <v>17847</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7">
         <v>111</v>
@@ -2739,13 +2712,13 @@
         <v>71834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>95</v>
@@ -2754,13 +2727,13 @@
         <v>57789</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
@@ -2769,13 +2742,13 @@
         <v>129623</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2763,13 @@
         <v>93683</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" s="7">
         <v>127</v>
@@ -2805,13 +2778,13 @@
         <v>75129</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M27" s="7">
         <v>274</v>
@@ -2820,18 +2793,18 @@
         <v>168811</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2816,13 @@
         <v>1979</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2858,13 +2831,13 @@
         <v>428</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2873,13 +2846,13 @@
         <v>2407</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2867,13 @@
         <v>1734</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2915,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2924,13 +2897,13 @@
         <v>1734</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2918,13 @@
         <v>928</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2966,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2975,13 +2948,13 @@
         <v>928</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3011,13 +2984,13 @@
         <v>843</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3026,13 +2999,13 @@
         <v>843</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3020,13 @@
         <v>888</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3068,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3077,13 +3050,13 @@
         <v>888</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3071,13 @@
         <v>902</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3113,13 +3086,13 @@
         <v>1640</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -3128,13 +3101,13 @@
         <v>2541</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3122,13 @@
         <v>6517</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -3164,13 +3137,13 @@
         <v>4729</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -3179,13 +3152,13 @@
         <v>11246</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3173,13 @@
         <v>848</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3215,13 +3188,13 @@
         <v>1373</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -3230,13 +3203,13 @@
         <v>2221</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3224,13 @@
         <v>7854</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -3266,13 +3239,13 @@
         <v>3756</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -3281,19 +3254,19 @@
         <v>11610</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7">
         <v>16</v>
@@ -3302,13 +3275,13 @@
         <v>11595</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
         <v>22</v>
@@ -3317,13 +3290,13 @@
         <v>15900</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -3332,19 +3305,19 @@
         <v>27494</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7">
         <v>98</v>
@@ -3353,13 +3326,13 @@
         <v>79966</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>75</v>
@@ -3368,13 +3341,13 @@
         <v>56454</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>173</v>
@@ -3383,13 +3356,13 @@
         <v>136420</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3377,13 @@
         <v>113211</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>114</v>
@@ -3419,13 +3392,13 @@
         <v>85123</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>251</v>
@@ -3434,18 +3407,18 @@
         <v>198334</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3457,13 +3430,13 @@
         <v>421</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -3472,13 +3445,13 @@
         <v>734</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3487,13 +3460,13 @@
         <v>1155</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3481,13 @@
         <v>822</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3523,13 +3496,13 @@
         <v>1152</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3538,13 +3511,13 @@
         <v>1974</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3580,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3595,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3625,13 +3598,13 @@
         <v>398</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -3640,13 +3613,13 @@
         <v>398</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3634,13 @@
         <v>2335</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3682,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3691,13 +3664,13 @@
         <v>2335</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3685,13 @@
         <v>975</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3733,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3742,13 +3715,13 @@
         <v>975</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,10 +3739,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3778,13 +3751,13 @@
         <v>3208</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -3793,13 +3766,13 @@
         <v>5794</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3787,13 @@
         <v>2281</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -3829,13 +3802,13 @@
         <v>2704</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M47" s="7">
         <v>7</v>
@@ -3844,13 +3817,13 @@
         <v>4985</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,10 +3841,10 @@
         <v>21</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H48" s="7">
         <v>11</v>
@@ -3880,13 +3853,13 @@
         <v>7341</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M48" s="7">
         <v>17</v>
@@ -3895,19 +3868,19 @@
         <v>11852</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7">
         <v>29</v>
@@ -3916,13 +3889,13 @@
         <v>21280</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H49" s="7">
         <v>18</v>
@@ -3931,13 +3904,13 @@
         <v>12142</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M49" s="7">
         <v>47</v>
@@ -3946,19 +3919,19 @@
         <v>33422</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7">
         <v>129</v>
@@ -3967,13 +3940,13 @@
         <v>103998</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H50" s="7">
         <v>129</v>
@@ -3982,13 +3955,13 @@
         <v>98229</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M50" s="7">
         <v>258</v>
@@ -3997,13 +3970,13 @@
         <v>202227</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +3991,13 @@
         <v>139210</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" s="7">
         <v>169</v>
@@ -4033,13 +4006,13 @@
         <v>125908</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M51" s="7">
         <v>344</v>
@@ -4048,13 +4021,13 @@
         <v>265118</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4044,13 @@
         <v>5369</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -4086,13 +4059,13 @@
         <v>1624</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="M52" s="7">
         <v>9</v>
@@ -4101,13 +4074,13 @@
         <v>6992</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4095,13 @@
         <v>7587</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H53" s="7">
         <v>3</v>
@@ -4137,13 +4110,13 @@
         <v>2004</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="M53" s="7">
         <v>13</v>
@@ -4152,13 +4125,13 @@
         <v>9591</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4146,13 @@
         <v>1816</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4194,7 +4167,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>295</v>
+        <v>178</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4203,13 +4176,13 @@
         <v>1816</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4197,13 @@
         <v>380</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4239,13 +4212,13 @@
         <v>1242</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -4254,13 +4227,13 @@
         <v>1622</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4248,13 @@
         <v>4235</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -4290,13 +4263,13 @@
         <v>418</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -4305,13 +4278,13 @@
         <v>4653</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4299,13 @@
         <v>1877</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
@@ -4341,13 +4314,13 @@
         <v>2993</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="M57" s="7">
         <v>6</v>
@@ -4356,13 +4329,13 @@
         <v>4869</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4350,13 @@
         <v>10907</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H58" s="7">
         <v>14</v>
@@ -4392,13 +4365,13 @@
         <v>11549</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M58" s="7">
         <v>28</v>
@@ -4407,13 +4380,13 @@
         <v>22456</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4401,13 @@
         <v>3968</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H59" s="7">
         <v>10</v>
@@ -4443,13 +4416,13 @@
         <v>5975</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="M59" s="7">
         <v>16</v>
@@ -4458,13 +4431,13 @@
         <v>9943</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4452,13 @@
         <v>19850</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H60" s="7">
         <v>21</v>
@@ -4494,13 +4467,13 @@
         <v>13763</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M60" s="7">
         <v>50</v>
@@ -4509,19 +4482,19 @@
         <v>33612</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="7">
         <v>64</v>
@@ -4530,13 +4503,13 @@
         <v>42485</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H61" s="7">
         <v>64</v>
@@ -4545,13 +4518,13 @@
         <v>40370</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M61" s="7">
         <v>128</v>
@@ -4560,19 +4533,19 @@
         <v>82855</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" s="7">
         <v>372</v>
@@ -4581,13 +4554,13 @@
         <v>272603</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H62" s="7">
         <v>346</v>
@@ -4596,13 +4569,13 @@
         <v>236078</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M62" s="7">
         <v>718</v>
@@ -4611,13 +4584,13 @@
         <v>508681</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4605,13 @@
         <v>371077</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" s="7">
         <v>468</v>
@@ -4647,13 +4620,13 @@
         <v>316014</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M63" s="7">
         <v>979</v>
@@ -4662,18 +4635,18 @@
         <v>687090</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3D914E-D76D-4BC7-AEC9-9FF38F3ED5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5F498E-627F-4AF8-BEC6-A2828EBAA901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7CDB3E11-00B0-49C8-A9FF-F202B78228B6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{E8CF475F-E96C-466D-AAA8-8519E3F94A32}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="340">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera la contaminación del aire en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,985 +71,988 @@
     <t>Más de 50€</t>
   </si>
   <si>
+    <t>1,54%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>11,16%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>30 €</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15 €</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1464,7 +1467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A039478F-1D9B-4F3D-B2AB-EF8D7EF551C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37090BFD-113F-4FF9-9CE1-C410F34DB103}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1597,16 +1600,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1621,7 +1624,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1633,28 +1636,28 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>1293</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>1344</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -1666,13 +1669,13 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -1690,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1705,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1720,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -1735,46 +1738,46 @@
         <v>26</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>380</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>390</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>30</v>
@@ -1786,355 +1789,355 @@
         <v>31</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>590</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>630</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1353</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1639</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>465</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
       <c r="I10" s="7">
-        <v>1632</v>
+        <v>479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2097</v>
+        <v>2119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>795</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>388</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
       <c r="I11" s="7">
-        <v>798</v>
+        <v>396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1186</v>
+        <v>1191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
-        <v>2964</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>2996</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>2964</v>
+        <v>2996</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1939</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>2088</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
       <c r="I13" s="7">
-        <v>2003</v>
+        <v>2130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>4091</v>
+        <v>4069</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="7">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23780</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
         <v>34</v>
       </c>
-      <c r="D14" s="7">
-        <v>16805</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="7">
-        <v>47</v>
-      </c>
       <c r="I14" s="7">
-        <v>23606</v>
+        <v>17843</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
       </c>
       <c r="N14" s="7">
-        <v>40411</v>
+        <v>41623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,102 +2146,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29947</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="7">
         <v>52</v>
       </c>
-      <c r="D15" s="7">
-        <v>24973</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="7">
-        <v>58</v>
-      </c>
       <c r="I15" s="7">
-        <v>29854</v>
+        <v>26208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>54827</v>
+        <v>56154</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2968</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3481</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2968</v>
+        <v>3481</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,49 +2250,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>822</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
-        <v>3737</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
       <c r="I17" s="7">
-        <v>852</v>
+        <v>4047</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>4589</v>
+        <v>4870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,49 +2301,49 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>888</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>888</v>
+        <v>939</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2370,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2385,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,52 +2406,52 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2457,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2472,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2487,163 +2490,163 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7">
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>1340</v>
+        <v>1962</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>1979</v>
+        <v>1370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>3319</v>
+        <v>3332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1223</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
-        <v>451</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
       <c r="I23" s="7">
-        <v>1100</v>
+        <v>470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>1551</v>
+        <v>1694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2646</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
-        <v>4520</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
       <c r="I24" s="7">
-        <v>2666</v>
+        <v>4860</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>7185</v>
+        <v>7505</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>132</v>
@@ -2652,103 +2655,103 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9982</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="7">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
-        <v>7522</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>7663</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="7">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10325</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>17847</v>
+        <v>17646</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="7">
+        <v>95</v>
+      </c>
+      <c r="D26" s="7">
+        <v>57523</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="7">
         <v>111</v>
       </c>
-      <c r="D26" s="7">
-        <v>71834</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>74581</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="7">
-        <v>95</v>
-      </c>
-      <c r="I26" s="7">
-        <v>57789</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>206</v>
       </c>
       <c r="N26" s="7">
-        <v>129623</v>
+        <v>132104</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,84 +2760,84 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>127</v>
+      </c>
+      <c r="D27" s="7">
+        <v>74574</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="7">
         <v>147</v>
       </c>
-      <c r="D27" s="7">
-        <v>93683</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="7">
-        <v>127</v>
-      </c>
       <c r="I27" s="7">
-        <v>75129</v>
+        <v>97845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M27" s="7">
         <v>274</v>
       </c>
       <c r="N27" s="7">
-        <v>168811</v>
+        <v>172419</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>422</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
-        <v>1979</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7">
+        <v>2105</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>428</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>154</v>
@@ -2843,16 +2846,16 @@
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>2407</v>
+        <v>2526</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,25 +2864,25 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1734</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>11</v>
@@ -2888,22 +2891,22 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>1734</v>
+        <v>1813</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2915,49 @@
         <v>24</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
-        <v>928</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="I30" s="7">
+        <v>975</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2966,49 @@
         <v>26</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>843</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,133 +3017,133 @@
         <v>31</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
-        <v>888</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>888</v>
+        <v>937</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1619</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="7">
-        <v>902</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="I33" s="7">
+        <v>943</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1640</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
       </c>
       <c r="N33" s="7">
-        <v>2541</v>
+        <v>2562</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="7">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4758</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="7">
         <v>7</v>
       </c>
-      <c r="D34" s="7">
-        <v>6517</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="I34" s="7">
+        <v>7432</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H34" s="7">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4729</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>183</v>
@@ -3149,100 +3152,100 @@
         <v>13</v>
       </c>
       <c r="N34" s="7">
-        <v>11246</v>
+        <v>12190</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="D35" s="7">
-        <v>848</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="7">
-        <v>2</v>
-      </c>
       <c r="I35" s="7">
-        <v>1373</v>
+        <v>911</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
       </c>
       <c r="N35" s="7">
-        <v>2221</v>
+        <v>2347</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3908</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="7">
         <v>8</v>
       </c>
-      <c r="D36" s="7">
-        <v>7854</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="I36" s="7">
+        <v>8500</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="H36" s="7">
-        <v>5</v>
-      </c>
-      <c r="I36" s="7">
-        <v>3756</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>195</v>
@@ -3251,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="N36" s="7">
-        <v>11610</v>
+        <v>12407</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>196</v>
@@ -3266,13 +3269,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D37" s="7">
-        <v>11595</v>
+        <v>14912</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>199</v>
@@ -3284,10 +3287,10 @@
         <v>201</v>
       </c>
       <c r="H37" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="7">
-        <v>15900</v>
+        <v>11758</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>202</v>
@@ -3302,7 +3305,7 @@
         <v>38</v>
       </c>
       <c r="N37" s="7">
-        <v>27494</v>
+        <v>26669</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>205</v>
@@ -3317,13 +3320,13 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D38" s="7">
-        <v>79966</v>
+        <v>56431</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>208</v>
@@ -3335,10 +3338,10 @@
         <v>210</v>
       </c>
       <c r="H38" s="7">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I38" s="7">
-        <v>56454</v>
+        <v>82506</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>211</v>
@@ -3353,7 +3356,7 @@
         <v>173</v>
       </c>
       <c r="N38" s="7">
-        <v>136420</v>
+        <v>138936</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>214</v>
@@ -3371,49 +3374,49 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>114</v>
+      </c>
+      <c r="D39" s="7">
+        <v>84320</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="7">
         <v>137</v>
       </c>
-      <c r="D39" s="7">
-        <v>113211</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="7">
-        <v>114</v>
-      </c>
       <c r="I39" s="7">
-        <v>85123</v>
+        <v>117881</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M39" s="7">
         <v>251</v>
       </c>
       <c r="N39" s="7">
-        <v>198334</v>
+        <v>202200</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,46 +3430,46 @@
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>421</v>
+        <v>716</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>734</v>
+        <v>439</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,49 +3478,49 @@
         <v>18</v>
       </c>
       <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1132</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="7">
         <v>1</v>
       </c>
-      <c r="D41" s="7">
-        <v>822</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="I41" s="7">
+        <v>853</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1152</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>1974</v>
+        <v>1985</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,29 +3535,29 @@
         <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -3562,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>106</v>
@@ -3577,49 +3580,49 @@
         <v>26</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
-        <v>398</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,97 +3631,97 @@
         <v>31</v>
       </c>
       <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H44" s="7">
         <v>2</v>
       </c>
-      <c r="D44" s="7">
-        <v>2335</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>2548</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>2335</v>
+        <v>2548</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="D45" s="7">
-        <v>975</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
       </c>
       <c r="N45" s="7">
-        <v>975</v>
+        <v>1012</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>237</v>
@@ -3727,19 +3730,19 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7">
         <v>3</v>
       </c>
       <c r="D46" s="7">
-        <v>2585</v>
+        <v>3145</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>239</v>
@@ -3748,22 +3751,22 @@
         <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>3208</v>
+        <v>2619</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
       </c>
       <c r="N46" s="7">
-        <v>5794</v>
+        <v>5763</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>241</v>
@@ -3772,211 +3775,211 @@
         <v>242</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="7">
-        <v>2281</v>
+        <v>2605</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>244</v>
       </c>
       <c r="H47" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>2704</v>
+        <v>2710</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>245</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M47" s="7">
         <v>7</v>
       </c>
       <c r="N47" s="7">
-        <v>4985</v>
+        <v>5315</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" s="7">
+        <v>11</v>
+      </c>
+      <c r="D48" s="7">
+        <v>7337</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" s="7">
         <v>6</v>
       </c>
-      <c r="D48" s="7">
-        <v>4511</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H48" s="7">
-        <v>11</v>
-      </c>
       <c r="I48" s="7">
-        <v>7341</v>
+        <v>4691</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M48" s="7">
         <v>17</v>
       </c>
       <c r="N48" s="7">
-        <v>11852</v>
+        <v>12028</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" s="7">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7">
+        <v>11422</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49" s="7">
         <v>29</v>
       </c>
-      <c r="D49" s="7">
-        <v>21280</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="7">
-        <v>18</v>
-      </c>
       <c r="I49" s="7">
-        <v>12142</v>
+        <v>22584</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M49" s="7">
         <v>47</v>
       </c>
       <c r="N49" s="7">
-        <v>33422</v>
+        <v>34005</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7">
         <v>129</v>
       </c>
       <c r="D50" s="7">
-        <v>103998</v>
+        <v>115941</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H50" s="7">
         <v>129</v>
       </c>
       <c r="I50" s="7">
-        <v>98229</v>
+        <v>106760</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M50" s="7">
         <v>258</v>
       </c>
       <c r="N50" s="7">
-        <v>202227</v>
+        <v>222701</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,49 +3988,49 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
+        <v>169</v>
+      </c>
+      <c r="D51" s="7">
+        <v>142702</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="7">
         <v>175</v>
       </c>
-      <c r="D51" s="7">
-        <v>139210</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="7">
-        <v>169</v>
-      </c>
       <c r="I51" s="7">
-        <v>125908</v>
+        <v>144216</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M51" s="7">
         <v>344</v>
       </c>
       <c r="N51" s="7">
-        <v>265118</v>
+        <v>286918</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +4041,49 @@
         <v>10</v>
       </c>
       <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1599</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52" s="7">
         <v>6</v>
       </c>
-      <c r="D52" s="7">
-        <v>5369</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H52" s="7">
-        <v>3</v>
-      </c>
       <c r="I52" s="7">
-        <v>1624</v>
+        <v>6025</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="M52" s="7">
         <v>9</v>
       </c>
       <c r="N52" s="7">
-        <v>6992</v>
+        <v>7624</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,49 +4092,49 @@
         <v>18</v>
       </c>
       <c r="C53" s="7">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1954</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" s="7">
         <v>10</v>
       </c>
-      <c r="D53" s="7">
-        <v>7587</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H53" s="7">
-        <v>3</v>
-      </c>
       <c r="I53" s="7">
-        <v>2004</v>
+        <v>8058</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="M53" s="7">
         <v>13</v>
       </c>
       <c r="N53" s="7">
-        <v>9591</v>
+        <v>10012</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,49 +4143,49 @@
         <v>24</v>
       </c>
       <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" s="7">
         <v>2</v>
       </c>
-      <c r="D54" s="7">
-        <v>1816</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
       </c>
       <c r="N54" s="7">
-        <v>1816</v>
+        <v>1915</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>288</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,49 +4194,49 @@
         <v>26</v>
       </c>
       <c r="C55" s="7">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="7">
         <v>1</v>
       </c>
-      <c r="D55" s="7">
-        <v>380</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="I55" s="7">
+        <v>390</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H55" s="7">
-        <v>2</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1242</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
       </c>
       <c r="N55" s="7">
-        <v>1622</v>
+        <v>1631</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,199 +4245,199 @@
         <v>31</v>
       </c>
       <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7">
+        <v>416</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="7">
         <v>5</v>
       </c>
-      <c r="D56" s="7">
-        <v>4235</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="I56" s="7">
+        <v>4548</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H56" s="7">
-        <v>1</v>
-      </c>
-      <c r="I56" s="7">
-        <v>418</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
       </c>
       <c r="N56" s="7">
-        <v>4653</v>
+        <v>4964</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="7">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2951</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="7">
         <v>2</v>
       </c>
-      <c r="D57" s="7">
-        <v>1877</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H57" s="7">
-        <v>4</v>
-      </c>
       <c r="I57" s="7">
-        <v>2993</v>
+        <v>1956</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="M57" s="7">
         <v>6</v>
       </c>
       <c r="N57" s="7">
-        <v>4869</v>
+        <v>4906</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>299</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" s="7">
         <v>14</v>
       </c>
       <c r="D58" s="7">
-        <v>10907</v>
+        <v>11504</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H58" s="7">
         <v>14</v>
       </c>
       <c r="I58" s="7">
-        <v>11549</v>
+        <v>11901</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M58" s="7">
         <v>28</v>
       </c>
       <c r="N58" s="7">
-        <v>22456</v>
+        <v>23404</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C59" s="7">
+        <v>10</v>
+      </c>
+      <c r="D59" s="7">
+        <v>6060</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59" s="7">
         <v>6</v>
       </c>
-      <c r="D59" s="7">
-        <v>3968</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="I59" s="7">
+        <v>4487</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="H59" s="7">
-        <v>10</v>
-      </c>
-      <c r="I59" s="7">
-        <v>5975</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M59" s="7">
         <v>16</v>
       </c>
       <c r="N59" s="7">
-        <v>9943</v>
+        <v>10547</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>313</v>
@@ -4443,82 +4446,82 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C60" s="7">
+        <v>21</v>
+      </c>
+      <c r="D60" s="7">
+        <v>13890</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H60" s="7">
         <v>29</v>
       </c>
-      <c r="D60" s="7">
-        <v>19850</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="I60" s="7">
+        <v>21046</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H60" s="7">
-        <v>21</v>
-      </c>
-      <c r="I60" s="7">
-        <v>13763</v>
-      </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M60" s="7">
         <v>50</v>
       </c>
       <c r="N60" s="7">
-        <v>33612</v>
+        <v>34936</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P60" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="Q60" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C61" s="7">
         <v>64</v>
       </c>
       <c r="D61" s="7">
-        <v>42485</v>
+        <v>38254</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H61" s="7">
         <v>64</v>
       </c>
       <c r="I61" s="7">
-        <v>40370</v>
+        <v>44135</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>324</v>
+        <v>58</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>325</v>
@@ -4530,7 +4533,7 @@
         <v>128</v>
       </c>
       <c r="N61" s="7">
-        <v>82855</v>
+        <v>82389</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>327</v>
@@ -4545,13 +4548,13 @@
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C62" s="7">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="D62" s="7">
-        <v>272603</v>
+        <v>253675</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>330</v>
@@ -4563,34 +4566,34 @@
         <v>332</v>
       </c>
       <c r="H62" s="7">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="I62" s="7">
-        <v>236078</v>
+        <v>281689</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M62" s="7">
         <v>718</v>
       </c>
       <c r="N62" s="7">
-        <v>508681</v>
+        <v>535363</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,54 +4602,54 @@
         <v>3</v>
       </c>
       <c r="C63" s="7">
+        <v>468</v>
+      </c>
+      <c r="D63" s="7">
+        <v>331543</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="7">
         <v>511</v>
       </c>
-      <c r="D63" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" s="7">
-        <v>468</v>
-      </c>
       <c r="I63" s="7">
-        <v>316014</v>
+        <v>386149</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M63" s="7">
         <v>979</v>
       </c>
       <c r="N63" s="7">
-        <v>687090</v>
+        <v>717691</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
